--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L645"/>
+  <dimension ref="A1:L650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24314,6 +24314,214 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="n">
+        <v>284.5757142857143</v>
+      </c>
+      <c r="D646" t="n">
+        <v>304.06</v>
+      </c>
+      <c r="E646" t="n">
+        <v>317.0277777777778</v>
+      </c>
+      <c r="F646" t="n">
+        <v>324.09</v>
+      </c>
+      <c r="G646" t="n">
+        <v>325.55</v>
+      </c>
+      <c r="H646" t="n">
+        <v>324.19</v>
+      </c>
+      <c r="I646" t="n">
+        <v>334.2184615384616</v>
+      </c>
+      <c r="J646" t="n">
+        <v>328.9384615384615</v>
+      </c>
+      <c r="K646" t="n">
+        <v>340.345</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>299.85</v>
+      </c>
+      <c r="C647" t="n">
+        <v>324.2014285714285</v>
+      </c>
+      <c r="D647" t="n">
+        <v>324.97</v>
+      </c>
+      <c r="E647" t="n">
+        <v>325.3366666666667</v>
+      </c>
+      <c r="F647" t="n">
+        <v>334.38</v>
+      </c>
+      <c r="G647" t="n">
+        <v>332.08</v>
+      </c>
+      <c r="H647" t="n">
+        <v>332.59</v>
+      </c>
+      <c r="I647" t="n">
+        <v>343.4030769230769</v>
+      </c>
+      <c r="J647" t="n">
+        <v>337.7730769230769</v>
+      </c>
+      <c r="K647" t="n">
+        <v>346.795</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>321.14</v>
+      </c>
+      <c r="C648" t="n">
+        <v>341.6357142857143</v>
+      </c>
+      <c r="D648" t="n">
+        <v>322.28</v>
+      </c>
+      <c r="E648" t="n">
+        <v>321.2822222222222</v>
+      </c>
+      <c r="F648" t="n">
+        <v>332.3718181818182</v>
+      </c>
+      <c r="G648" t="n">
+        <v>330.3618181818182</v>
+      </c>
+      <c r="H648" t="n">
+        <v>340.53</v>
+      </c>
+      <c r="I648" t="n">
+        <v>340.0538461538461</v>
+      </c>
+      <c r="J648" t="n">
+        <v>340.5738461538461</v>
+      </c>
+      <c r="K648" t="n">
+        <v>342.825</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>346.52</v>
+      </c>
+      <c r="C649" t="n">
+        <v>344.5785714285714</v>
+      </c>
+      <c r="D649" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="E649" t="n">
+        <v>330.6388888888889</v>
+      </c>
+      <c r="F649" t="n">
+        <v>332.6327272727273</v>
+      </c>
+      <c r="G649" t="n">
+        <v>336.5127272727273</v>
+      </c>
+      <c r="H649" t="n">
+        <v>340.61</v>
+      </c>
+      <c r="I649" t="n">
+        <v>341.4238461538461</v>
+      </c>
+      <c r="J649" t="n">
+        <v>344.3838461538461</v>
+      </c>
+      <c r="K649" t="n">
+        <v>346.6</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>336.47</v>
+      </c>
+      <c r="C650" t="n">
+        <v>338.3385714285715</v>
+      </c>
+      <c r="D650" t="n">
+        <v>317.57</v>
+      </c>
+      <c r="E650" t="n">
+        <v>323.0344444444444</v>
+      </c>
+      <c r="F650" t="n">
+        <v>326.5954545454546</v>
+      </c>
+      <c r="G650" t="n">
+        <v>338.2154545454546</v>
+      </c>
+      <c r="H650" t="n">
+        <v>341.06</v>
+      </c>
+      <c r="I650" t="n">
+        <v>347.9807692307692</v>
+      </c>
+      <c r="J650" t="n">
+        <v>344.9107692307692</v>
+      </c>
+      <c r="K650" t="n">
+        <v>352.035</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24325,7 +24533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B675"/>
+  <dimension ref="A1:B680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31083,6 +31291,56 @@
       </c>
       <c r="B675" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -31251,28 +31509,28 @@
         <v>0.0326</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5358906102946324</v>
+        <v>-0.4074006336786419</v>
       </c>
       <c r="J2" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002243866091973246</v>
+        <v>0.001314115312992525</v>
       </c>
       <c r="M2" t="n">
-        <v>64.14826513612375</v>
+        <v>63.87177241175682</v>
       </c>
       <c r="N2" t="n">
-        <v>5727.96786377363</v>
+        <v>5706.184585681922</v>
       </c>
       <c r="O2" t="n">
-        <v>75.68333940685777</v>
+        <v>75.53929166785933</v>
       </c>
       <c r="P2" t="n">
-        <v>280.0740280302749</v>
+        <v>278.6085397915498</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31328,28 +31586,28 @@
         <v>0.0423</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2873318569225287</v>
+        <v>-0.2869364799786064</v>
       </c>
       <c r="J3" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K3" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01931221202362177</v>
+        <v>0.01910448383668517</v>
       </c>
       <c r="M3" t="n">
-        <v>11.04255922115074</v>
+        <v>11.12900554904495</v>
       </c>
       <c r="N3" t="n">
-        <v>189.8764685764174</v>
+        <v>193.7137660495015</v>
       </c>
       <c r="O3" t="n">
-        <v>13.77956706781521</v>
+        <v>13.91810928429223</v>
       </c>
       <c r="P3" t="n">
-        <v>333.8876678735728</v>
+        <v>333.8821280486445</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31405,28 +31663,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3386734323508671</v>
+        <v>-0.3364699348196903</v>
       </c>
       <c r="J4" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K4" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02883341536922812</v>
+        <v>0.02894648337811601</v>
       </c>
       <c r="M4" t="n">
-        <v>10.37386792424443</v>
+        <v>10.32841498422727</v>
       </c>
       <c r="N4" t="n">
-        <v>173.7122010826861</v>
+        <v>172.4398836436982</v>
       </c>
       <c r="O4" t="n">
-        <v>13.1799924538175</v>
+        <v>13.13163674656355</v>
       </c>
       <c r="P4" t="n">
-        <v>325.6890665020286</v>
+        <v>325.6642201036184</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31482,28 +31740,28 @@
         <v>0.0525</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3750224597721386</v>
+        <v>-0.3634312026912692</v>
       </c>
       <c r="J5" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K5" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03586864202905526</v>
+        <v>0.03422853757895639</v>
       </c>
       <c r="M5" t="n">
-        <v>10.48515893134689</v>
+        <v>10.44360887740955</v>
       </c>
       <c r="N5" t="n">
-        <v>174.0007382941458</v>
+        <v>172.9206754850849</v>
       </c>
       <c r="O5" t="n">
-        <v>13.19093394321061</v>
+        <v>13.14993062662632</v>
       </c>
       <c r="P5" t="n">
-        <v>326.735411430061</v>
+        <v>326.6066556117861</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31559,28 +31817,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4017453208712718</v>
+        <v>-0.3895388064119988</v>
       </c>
       <c r="J6" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K6" t="n">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05815683495909763</v>
+        <v>0.05550940043336827</v>
       </c>
       <c r="M6" t="n">
-        <v>8.613886198184659</v>
+        <v>8.594839053991658</v>
       </c>
       <c r="N6" t="n">
-        <v>122.1456143274696</v>
+        <v>121.5712534688055</v>
       </c>
       <c r="O6" t="n">
-        <v>11.05195070236334</v>
+        <v>11.02593549177599</v>
       </c>
       <c r="P6" t="n">
-        <v>333.4441876360108</v>
+        <v>333.3093986146826</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -31636,28 +31894,28 @@
         <v>0.0596</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2850646677062889</v>
+        <v>-0.2786001600365109</v>
       </c>
       <c r="J7" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K7" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03575482082836656</v>
+        <v>0.03466481238274866</v>
       </c>
       <c r="M7" t="n">
-        <v>7.57248035366421</v>
+        <v>7.546552900148116</v>
       </c>
       <c r="N7" t="n">
-        <v>102.5017620399202</v>
+        <v>101.8470435680347</v>
       </c>
       <c r="O7" t="n">
-        <v>10.1243153862333</v>
+        <v>10.0919296255986</v>
       </c>
       <c r="P7" t="n">
-        <v>336.2277224271069</v>
+        <v>336.1559201163479</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31713,28 +31971,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1416784885001733</v>
+        <v>-0.136708386832667</v>
       </c>
       <c r="J8" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K8" t="n">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01011517429818021</v>
+        <v>0.009537932925324899</v>
       </c>
       <c r="M8" t="n">
-        <v>7.450683268028256</v>
+        <v>7.440586518797641</v>
       </c>
       <c r="N8" t="n">
-        <v>94.33889491526038</v>
+        <v>93.92027592752082</v>
       </c>
       <c r="O8" t="n">
-        <v>9.712821161498876</v>
+        <v>9.691247387592622</v>
       </c>
       <c r="P8" t="n">
-        <v>336.7096734953361</v>
+        <v>336.6553210797573</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31790,28 +32048,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1159806999690211</v>
+        <v>-0.1106952887292917</v>
       </c>
       <c r="J9" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K9" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0076168090972214</v>
+        <v>0.007044548328043909</v>
       </c>
       <c r="M9" t="n">
-        <v>6.895386228691085</v>
+        <v>6.867630224053625</v>
       </c>
       <c r="N9" t="n">
-        <v>83.03407742877344</v>
+        <v>82.49081345152226</v>
       </c>
       <c r="O9" t="n">
-        <v>9.11230362909256</v>
+        <v>9.082445345363894</v>
       </c>
       <c r="P9" t="n">
-        <v>341.5902031131184</v>
+        <v>341.5321930250692</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31867,28 +32125,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.001038310597816165</v>
+        <v>-0.003943294572477143</v>
       </c>
       <c r="J10" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K10" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L10" t="n">
-        <v>7.148174083759784e-07</v>
+        <v>1.044747005263247e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>6.282462912258044</v>
+        <v>6.266362245333192</v>
       </c>
       <c r="N10" t="n">
-        <v>68.23188515826691</v>
+        <v>67.90541677538522</v>
       </c>
       <c r="O10" t="n">
-        <v>8.260259388074136</v>
+        <v>8.240474305243918</v>
       </c>
       <c r="P10" t="n">
-        <v>340.8180358062175</v>
+        <v>340.850430648684</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31944,28 +32202,28 @@
         <v>0.0871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05239296588850492</v>
+        <v>0.05390684396451825</v>
       </c>
       <c r="J11" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K11" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002273885746547299</v>
+        <v>0.002442903512782757</v>
       </c>
       <c r="M11" t="n">
-        <v>5.849807255113771</v>
+        <v>5.826108005243335</v>
       </c>
       <c r="N11" t="n">
-        <v>57.69705425095245</v>
+        <v>57.29704216729979</v>
       </c>
       <c r="O11" t="n">
-        <v>7.595857703442873</v>
+        <v>7.569480970799767</v>
       </c>
       <c r="P11" t="n">
-        <v>343.5961031833515</v>
+        <v>343.5795007604095</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -32002,7 +32260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L645"/>
+  <dimension ref="A1:L650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65536,6 +65794,312 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-45.53056040417352,170.75943804833577</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-45.53124026434961,170.75901974497182</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-45.53174074779404,170.7585343358761</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-45.532206314842675,170.75792813483514</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-45.53265217485478,170.7572846499024</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-45.533095098555194,170.75663911147365</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-45.53362170695563,170.75611396266376</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-45.534102560117724,170.75552516113584</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>-45.534680160209156,170.75512884689138</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-45.53034373328731,170.76047445887676</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-45.53083758878889,170.7597571143352</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-45.53136506700482,170.75922006104778</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-45.53179607720147,170.75860587183053</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-45.53227553472492,170.75801562239855</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-45.5326948372941,170.75734213087313</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-45.53314837412665,170.7567153920044</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-45.53367565071009,170.7562030423515</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-45.53415003202424,170.75561588286</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>-45.534714216066035,170.7551957117256</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-45.53051745982109,170.76058929746807</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-45.53095954255707,170.7598974960809</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-45.53134901158887,170.7591942910197</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-45.5317690784093,170.75857096479274</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-45.532262025875795,170.75799854843285</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-45.53268361190205,170.75732700639932</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-45.53319873218156,170.75678749540054</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>-45.53365597977085,170.75617055883416</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>-45.53416508165809,170.755644643693</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>-45.534693254558604,170.75515455615133</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-45.53072456064069,170.7607261984866</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-45.53098012798525,170.75992119217423</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-45.531344952969846,170.75918777666547</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-45.53183138500644,170.75865152175317</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-45.53226378098671,170.75800076673394</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-45.53272379760889,170.75738115044277</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>-45.53319923956729,170.75678822188374</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>-45.533664026152906,170.75618384618656</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>-45.534185554274295,170.75568376824566</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>-45.534713186470924,170.75519369022942</t>
+        </is>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-45.53064255265112,170.76067198815488</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-45.53093647887764,170.75987094727446</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-45.53132089967615,170.7591491695562</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-45.5317807465649,170.7585860506748</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-45.53222316881052,170.75794943667293</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-45.53273492202502,170.75739613889763</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-45.53320209361188,170.7567923083522</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>-45.53370253672225,170.75624744050768</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>-45.534188385636504,170.75568917917434</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>-45.534741883121924,170.75525003298426</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -31354,7 +31354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31445,35 +31445,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31532,27 +31537,28 @@
       <c r="P2" t="n">
         <v>278.6085397915498</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.75885713676206 -45.52789694403457, 170.76360325838246 -45.53507653383504)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.7588571367621</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.52789694403457</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.7636032583825</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.53507653383504</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.7612301975723</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.5314867389348</v>
       </c>
     </row>
@@ -31609,27 +31615,28 @@
       <c r="P3" t="n">
         <v>333.8821280486445</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.7571467381161 -45.52856975252577, 170.7642331842256 -45.53472574411804)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.7571467381161</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.52856975252577</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.7642331842256</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.53472574411804</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.7606899611708</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.5316477483219</v>
       </c>
     </row>
@@ -31686,27 +31693,28 @@
       <c r="P4" t="n">
         <v>325.6642201036184</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.75610697576366 -45.52942542493517, 170.76453950295718 -45.53467890556959)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.7561069757637</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.52942542493517</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.7645395029572</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.53467890556959</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.7603232393604</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.53205216525238</v>
       </c>
     </row>
@@ -31763,27 +31771,28 @@
       <c r="P5" t="n">
         <v>326.6066556117861</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.75580496786125 -45.52962960825086, 170.7633824996435 -45.535490213285975)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.7558049678613</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.52962960825086</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.7633824996435</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.53549021328597</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.7595937337524</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.53255991076841</v>
       </c>
     </row>
@@ -31840,27 +31849,28 @@
       <c r="P6" t="n">
         <v>333.3093986146826</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.7551727687546 -45.53002615863661, 170.76265567712016 -45.53594639716704)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.7551727687546</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.53002615863661</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.7626556771202</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.53594639716704</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.7589142229374</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.53298627790183</v>
       </c>
     </row>
@@ -31917,27 +31927,28 @@
       <c r="P7" t="n">
         <v>336.1559201163479</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.75441907393665 -45.53052522454807, 170.7621666094346 -45.53627524245262)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.7544190739366</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.53052522454807</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.7621666094346</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.53627524245262</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.7582928416856</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.53340023350034</v>
       </c>
     </row>
@@ -31994,27 +32005,28 @@
       <c r="P8" t="n">
         <v>336.6553210797573</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.7536952471928 -45.53103894140511, 170.7616880591823 -45.5366210439872)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.7536952471928</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.53103894140511</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.7616880591823</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.5366210439872</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.7576916531875</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.53382999269616</v>
       </c>
     </row>
@@ -32071,27 +32083,28 @@
       <c r="P9" t="n">
         <v>341.5321930250692</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.75287256325183 -45.53165870524632, 170.76140970157772 -45.53682833774229)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.7528725632518</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.53165870524632</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.7614097015777</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.53682833774229</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.7571411324148</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.5342435214943</v>
       </c>
     </row>
@@ -32148,27 +32161,28 @@
       <c r="P10" t="n">
         <v>340.850430648684</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.75214743673374 -45.53233499326204, 170.76118701770864 -45.537064948949904)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.7521474367337</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.53233499326204</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.7611870177086</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.5370649489499</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.7566672272212</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.53469997110597</v>
       </c>
     </row>
@@ -32225,27 +32239,28 @@
       <c r="P11" t="n">
         <v>343.5795007604095</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.75160072807148 -45.532883092509906, 170.76072642507657 -45.53753086580624)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.7516007280715</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.53288309250991</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.7607264250766</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.53753086580624</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.756163576574</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.53520697915808</v>
       </c>
     </row>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L650"/>
+  <dimension ref="A1:L658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24522,6 +24522,338 @@
         </is>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:43+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>333.25</v>
+      </c>
+      <c r="C651" t="n">
+        <v>338.1328571428572</v>
+      </c>
+      <c r="D651" t="n">
+        <v>326.66</v>
+      </c>
+      <c r="E651" t="n">
+        <v>319.7766666666667</v>
+      </c>
+      <c r="F651" t="n">
+        <v>330.5709090909091</v>
+      </c>
+      <c r="G651" t="n">
+        <v>335.5109090909091</v>
+      </c>
+      <c r="H651" t="n">
+        <v>346.42</v>
+      </c>
+      <c r="I651" t="n">
+        <v>339.42</v>
+      </c>
+      <c r="J651" t="n">
+        <v>354.93</v>
+      </c>
+      <c r="K651" t="n">
+        <v>351.475</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>327.02</v>
+      </c>
+      <c r="C652" t="n">
+        <v>338.4328571428572</v>
+      </c>
+      <c r="D652" t="n">
+        <v>331.8</v>
+      </c>
+      <c r="E652" t="n">
+        <v>331.7355555555555</v>
+      </c>
+      <c r="F652" t="n">
+        <v>341.5854545454546</v>
+      </c>
+      <c r="G652" t="n">
+        <v>347.0554545454545</v>
+      </c>
+      <c r="H652" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="I652" t="n">
+        <v>348.8761538461538</v>
+      </c>
+      <c r="J652" t="n">
+        <v>357.6361538461539</v>
+      </c>
+      <c r="K652" t="n">
+        <v>356.265</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>301.57</v>
+      </c>
+      <c r="C653" t="n">
+        <v>327.7471428571428</v>
+      </c>
+      <c r="D653" t="n">
+        <v>320.51</v>
+      </c>
+      <c r="E653" t="n">
+        <v>327.14</v>
+      </c>
+      <c r="F653" t="n">
+        <v>332.5372727272728</v>
+      </c>
+      <c r="G653" t="n">
+        <v>338.9472727272728</v>
+      </c>
+      <c r="H653" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="I653" t="n">
+        <v>350.4907692307692</v>
+      </c>
+      <c r="J653" t="n">
+        <v>346.3907692307693</v>
+      </c>
+      <c r="K653" t="n">
+        <v>352.45</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>263.23</v>
+      </c>
+      <c r="C654" t="n">
+        <v>325.4828571428571</v>
+      </c>
+      <c r="D654" t="n">
+        <v>320.12</v>
+      </c>
+      <c r="E654" t="n">
+        <v>317.9611111111111</v>
+      </c>
+      <c r="F654" t="n">
+        <v>321.1881818181818</v>
+      </c>
+      <c r="G654" t="n">
+        <v>323.6581818181818</v>
+      </c>
+      <c r="H654" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="I654" t="n">
+        <v>339.0030769230769</v>
+      </c>
+      <c r="J654" t="n">
+        <v>342.2730769230769</v>
+      </c>
+      <c r="K654" t="n">
+        <v>347.94</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>165.05</v>
+      </c>
+      <c r="C655" t="n">
+        <v>335.9014285714285</v>
+      </c>
+      <c r="D655" t="n">
+        <v>332.81</v>
+      </c>
+      <c r="E655" t="n">
+        <v>333.0766666666667</v>
+      </c>
+      <c r="F655" t="n">
+        <v>333.67</v>
+      </c>
+      <c r="G655" t="n">
+        <v>337.49</v>
+      </c>
+      <c r="H655" t="n">
+        <v>347.1799999999999</v>
+      </c>
+      <c r="I655" t="n">
+        <v>354.7130769230769</v>
+      </c>
+      <c r="J655" t="n">
+        <v>351.8530769230769</v>
+      </c>
+      <c r="K655" t="n">
+        <v>362.095</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>149.17</v>
+      </c>
+      <c r="C656" t="n">
+        <v>333.4514285714285</v>
+      </c>
+      <c r="D656" t="n">
+        <v>324.91</v>
+      </c>
+      <c r="E656" t="n">
+        <v>324.8844444444445</v>
+      </c>
+      <c r="F656" t="n">
+        <v>325.3236363636364</v>
+      </c>
+      <c r="G656" t="n">
+        <v>336.7336363636364</v>
+      </c>
+      <c r="H656" t="n">
+        <v>340.59</v>
+      </c>
+      <c r="I656" t="n">
+        <v>348.3476923076923</v>
+      </c>
+      <c r="J656" t="n">
+        <v>345.0776923076923</v>
+      </c>
+      <c r="K656" t="n">
+        <v>345.45</v>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>132.01</v>
+      </c>
+      <c r="C657" t="n">
+        <v>306.5657142857143</v>
+      </c>
+      <c r="D657" t="n">
+        <v>317.48</v>
+      </c>
+      <c r="E657" t="n">
+        <v>319.04</v>
+      </c>
+      <c r="F657" t="n">
+        <v>325.7963636363637</v>
+      </c>
+      <c r="G657" t="n">
+        <v>329.9963636363636</v>
+      </c>
+      <c r="H657" t="n">
+        <v>337.44</v>
+      </c>
+      <c r="I657" t="n">
+        <v>344.4338461538461</v>
+      </c>
+      <c r="J657" t="n">
+        <v>350.7438461538461</v>
+      </c>
+      <c r="K657" t="n">
+        <v>352.81</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="n">
+        <v>323.73</v>
+      </c>
+      <c r="E658" t="n">
+        <v>326.0088888888889</v>
+      </c>
+      <c r="F658" t="n">
+        <v>329.3554545454546</v>
+      </c>
+      <c r="G658" t="n">
+        <v>341.1254545454545</v>
+      </c>
+      <c r="H658" t="n">
+        <v>341.8200000000001</v>
+      </c>
+      <c r="I658" t="n">
+        <v>344.6930769230769</v>
+      </c>
+      <c r="J658" t="n">
+        <v>347.2030769230769</v>
+      </c>
+      <c r="K658" t="n">
+        <v>349.83</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24533,7 +24865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31341,6 +31673,86 @@
       </c>
       <c r="B680" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -31514,28 +31926,28 @@
         <v>0.0326</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4074006336786419</v>
+        <v>-0.5173807446578038</v>
       </c>
       <c r="J2" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K2" t="n">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001314115312992525</v>
+        <v>0.00213775148508033</v>
       </c>
       <c r="M2" t="n">
-        <v>63.87177241175682</v>
+        <v>64.24547335258524</v>
       </c>
       <c r="N2" t="n">
-        <v>5706.184585681922</v>
+        <v>5738.219300106393</v>
       </c>
       <c r="O2" t="n">
-        <v>75.53929166785933</v>
+        <v>75.75103497713013</v>
       </c>
       <c r="P2" t="n">
-        <v>278.6085397915498</v>
+        <v>279.8866371287555</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31592,28 +32004,28 @@
         <v>0.0423</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2869364799786064</v>
+        <v>-0.2770444895253732</v>
       </c>
       <c r="J3" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K3" t="n">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01910448383668517</v>
+        <v>0.01825122667751677</v>
       </c>
       <c r="M3" t="n">
-        <v>11.12900554904495</v>
+        <v>11.0907095534861</v>
       </c>
       <c r="N3" t="n">
-        <v>193.7137660495015</v>
+        <v>192.3489400522604</v>
       </c>
       <c r="O3" t="n">
-        <v>13.91810928429223</v>
+        <v>13.86899203447246</v>
       </c>
       <c r="P3" t="n">
-        <v>333.8821280486445</v>
+        <v>333.7713994399468</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31670,28 +32082,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3364699348196903</v>
+        <v>-0.3100608342240458</v>
       </c>
       <c r="J4" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K4" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02894648337811601</v>
+        <v>0.02529231413414079</v>
       </c>
       <c r="M4" t="n">
-        <v>10.32841498422727</v>
+        <v>10.27220054129099</v>
       </c>
       <c r="N4" t="n">
-        <v>172.4398836436982</v>
+        <v>170.9196525733674</v>
       </c>
       <c r="O4" t="n">
-        <v>13.13163674656355</v>
+        <v>13.0736243090188</v>
       </c>
       <c r="P4" t="n">
-        <v>325.6642201036184</v>
+        <v>325.3644465834178</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31748,28 +32160,28 @@
         <v>0.0525</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3634312026912692</v>
+        <v>-0.3410149382555214</v>
       </c>
       <c r="J5" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K5" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03422853757895639</v>
+        <v>0.03087983499069502</v>
       </c>
       <c r="M5" t="n">
-        <v>10.44360887740955</v>
+        <v>10.39474704871669</v>
       </c>
       <c r="N5" t="n">
-        <v>172.9206754850849</v>
+        <v>171.624246225348</v>
       </c>
       <c r="O5" t="n">
-        <v>13.14993062662632</v>
+        <v>13.10054373777471</v>
       </c>
       <c r="P5" t="n">
-        <v>326.6066556117861</v>
+        <v>326.3546415154461</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31826,28 +32238,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3895388064119988</v>
+        <v>-0.3705392082315099</v>
       </c>
       <c r="J6" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K6" t="n">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05550940043336827</v>
+        <v>0.05136689183855203</v>
       </c>
       <c r="M6" t="n">
-        <v>8.594839053991658</v>
+        <v>8.569782764061593</v>
       </c>
       <c r="N6" t="n">
-        <v>121.5712534688055</v>
+        <v>120.9150267720619</v>
       </c>
       <c r="O6" t="n">
-        <v>11.02593549177599</v>
+        <v>10.99613690220624</v>
       </c>
       <c r="P6" t="n">
-        <v>333.3093986146826</v>
+        <v>333.0970689208463</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31904,28 +32316,28 @@
         <v>0.0596</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2786001600365109</v>
+        <v>-0.2577274842974981</v>
       </c>
       <c r="J7" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K7" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03466481238274866</v>
+        <v>0.03020405174505458</v>
       </c>
       <c r="M7" t="n">
-        <v>7.546552900148116</v>
+        <v>7.559350801468409</v>
       </c>
       <c r="N7" t="n">
-        <v>101.8470435680347</v>
+        <v>101.7383029350299</v>
       </c>
       <c r="O7" t="n">
-        <v>10.0919296255986</v>
+        <v>10.08654068226713</v>
       </c>
       <c r="P7" t="n">
-        <v>336.1559201163479</v>
+        <v>335.9217574666984</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31982,28 +32394,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.136708386832667</v>
+        <v>-0.1118416559226546</v>
       </c>
       <c r="J8" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K8" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009537932925324899</v>
+        <v>0.006470000634466233</v>
       </c>
       <c r="M8" t="n">
-        <v>7.440586518797641</v>
+        <v>7.463406739660234</v>
       </c>
       <c r="N8" t="n">
-        <v>93.92027592752082</v>
+        <v>94.14087730729365</v>
       </c>
       <c r="O8" t="n">
-        <v>9.691247387592622</v>
+        <v>9.702622187187011</v>
       </c>
       <c r="P8" t="n">
-        <v>336.6553210797573</v>
+        <v>336.3814335895368</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32060,28 +32472,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1106952887292917</v>
+        <v>-0.08809365945333797</v>
       </c>
       <c r="J9" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K9" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007044548328043909</v>
+        <v>0.004534668937263175</v>
       </c>
       <c r="M9" t="n">
-        <v>6.867630224053625</v>
+        <v>6.858066862355742</v>
       </c>
       <c r="N9" t="n">
-        <v>82.49081345152226</v>
+        <v>82.45672971284164</v>
       </c>
       <c r="O9" t="n">
-        <v>9.082445345363894</v>
+        <v>9.080568798970781</v>
       </c>
       <c r="P9" t="n">
-        <v>341.5321930250692</v>
+        <v>341.2814481322648</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32138,28 +32550,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.003943294572477143</v>
+        <v>0.0236827164710261</v>
       </c>
       <c r="J10" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K10" t="n">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="L10" t="n">
-        <v>1.044747005263247e-05</v>
+        <v>0.0003794233380208789</v>
       </c>
       <c r="M10" t="n">
-        <v>6.266362245333192</v>
+        <v>6.292432135245826</v>
       </c>
       <c r="N10" t="n">
-        <v>67.90541677538522</v>
+        <v>68.36804134869035</v>
       </c>
       <c r="O10" t="n">
-        <v>8.240474305243918</v>
+        <v>8.268496921973808</v>
       </c>
       <c r="P10" t="n">
-        <v>340.850430648684</v>
+        <v>340.5359006450801</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32216,28 +32628,28 @@
         <v>0.0871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05390684396451825</v>
+        <v>0.07543862055047924</v>
       </c>
       <c r="J11" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K11" t="n">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002442903512782757</v>
+        <v>0.004813961524674948</v>
       </c>
       <c r="M11" t="n">
-        <v>5.826108005243335</v>
+        <v>5.839085176437814</v>
       </c>
       <c r="N11" t="n">
-        <v>57.29704216729979</v>
+        <v>57.55950109356878</v>
       </c>
       <c r="O11" t="n">
-        <v>7.569480970799767</v>
+        <v>7.586797815519323</v>
       </c>
       <c r="P11" t="n">
-        <v>343.5795007604095</v>
+        <v>343.3424820195104</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32275,7 +32687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L650"/>
+  <dimension ref="A1:L658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66115,6 +66527,494 @@
         </is>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:43+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-45.53061627744941,170.76065461930506</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-45.530935039895716,170.7598692908505</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-45.53137515386179,170.75923625114729</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-45.531759052820696,170.7585580026099</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-45.53224991132864,170.7579832367485</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-45.53271725243631,170.75737233182448</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-45.53323608844356,170.75684098276375</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-45.53365225701974,170.75616441129</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-45.534242222805254,170.75579206591516</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>-45.53473892633851,170.75524422765636</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-45.53056544063916,170.76062101440147</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-45.53093713841101,170.7598717064688</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-45.53140583221796,170.7592854920774</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-45.53183868777114,170.75866096360306</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-45.53232400511603,170.75807688468942</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-45.532792676304865,170.75747395412066</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-45.533268307407496,170.75688711453634</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>-45.53370779555382,170.7562561246756</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-45.53425676399219,170.75581985524315</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>-45.53476421738739,170.75529388396322</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-45.530357768502114,170.76048373655786</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-45.53086239126466,170.75978566455612</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-45.53133844724151,170.75917733454085</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-45.531808085704576,170.75862139777223</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-45.53226313887297,170.75799995516036</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-45.53273970320704,170.7574025808141</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-45.53318598411383,170.7567692425135</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>-45.53371727861703,170.75627178453237</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-45.53419633824963,170.75570437717258</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>-45.53474407430944,170.7552543351473</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-45.53004491360684,170.7602769316446</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-45.53084655245639,170.75976743244198</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-45.53133611950364,170.75917359836842</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-45.531746962920835,170.75854237146712</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-45.53218679456751,170.75790346305635</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-45.532639815036696,170.75726799700197</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-45.533136070010904,170.7566977748214</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-45.533649808316774,170.75616036763887</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>-45.534174212289436,170.7556620929398</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>-45.53472026163668,170.75520758153803</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-45.52924376195606,170.7597473616293</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-45.5309194309375,170.7598513232572</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-45.53141186045288,170.75929516783066</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-45.53184761830406,170.7586725100226</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-45.53227075862236,170.75800958583483</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-45.53273018241817,170.75738975299888</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-45.53324090860465,170.7568478843642</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>-45.53374207733714,170.7563127359408</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>-45.53422568932726,170.75576046919824</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>-45.5347949995753,170.75535432165833</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-45.52911418048112,170.75966170837816</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-45.530902293057785,170.75983159572542</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-45.53136470889151,170.75921948625145</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-45.53179306582669,170.75860197838836</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-45.532214613404236,170.757938623438</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-45.532725240872814,170.7573830950204</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>-45.53319911272086,170.75678804026296</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>-45.53370469175898,170.75625099922578</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>-45.534189282578936,170.7556908932935</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>-45.534707114499014,170.7551817685868</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:14:20+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-45.52897415408486,170.75956915151906</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-45.530714225850595,170.75961511129077</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-45.531320362505674,170.75914830736306</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-45.53175414731078,170.75855166022987</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-45.5322177933981,170.7579426426529</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-45.53268122427873,170.75732378944855</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>-45.533179134404655,170.75675943499553</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>-45.53368170469513,170.75621303958008</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>-45.53421972900636,170.7557490785864</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>-45.5347459750985,170.75525806714444</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:05+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-45.531357665995934,170.7592081819252</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-45.53180055356916,170.75861165938042</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-45.5322417350784,170.75797290271785</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-45.532753933903265,170.75742175452473</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>-45.53320691377579,170.7567992099443</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>-45.533683227227044,170.75621555380877</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>-45.5342007030926,170.75571271869526</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>-45.53473024078561,170.75522717450914</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L658"/>
+  <dimension ref="A1:L664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24854,6 +24854,238 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>171.07</v>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="n">
+        <v>320.66</v>
+      </c>
+      <c r="E659" t="n">
+        <v>326.0644444444445</v>
+      </c>
+      <c r="F659" t="n">
+        <v>331.3218181818182</v>
+      </c>
+      <c r="G659" t="n">
+        <v>338.9018181818182</v>
+      </c>
+      <c r="H659" t="n">
+        <v>343.36</v>
+      </c>
+      <c r="I659" t="n">
+        <v>343.1953846153846</v>
+      </c>
+      <c r="J659" t="n">
+        <v>347.3253846153846</v>
+      </c>
+      <c r="K659" t="n">
+        <v>353.23</v>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="n">
+        <v>317.83</v>
+      </c>
+      <c r="E660" t="n">
+        <v>324.2244444444444</v>
+      </c>
+      <c r="F660" t="n">
+        <v>328.8490909090909</v>
+      </c>
+      <c r="G660" t="n">
+        <v>331.1790909090909</v>
+      </c>
+      <c r="H660" t="n">
+        <v>335.64</v>
+      </c>
+      <c r="I660" t="n">
+        <v>345.4853846153846</v>
+      </c>
+      <c r="J660" t="n">
+        <v>347.5353846153847</v>
+      </c>
+      <c r="K660" t="n">
+        <v>351.815</v>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="n">
+        <v>304.45</v>
+      </c>
+      <c r="E661" t="n">
+        <v>315.06</v>
+      </c>
+      <c r="F661" t="n">
+        <v>322.4354545454545</v>
+      </c>
+      <c r="G661" t="n">
+        <v>330.1254545454545</v>
+      </c>
+      <c r="H661" t="n">
+        <v>329.37</v>
+      </c>
+      <c r="I661" t="n">
+        <v>342.9576923076923</v>
+      </c>
+      <c r="J661" t="n">
+        <v>336.0976923076923</v>
+      </c>
+      <c r="K661" t="n">
+        <v>351.835</v>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>171.87</v>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="n">
+        <v>312.86</v>
+      </c>
+      <c r="E662" t="n">
+        <v>330.72</v>
+      </c>
+      <c r="F662" t="n">
+        <v>331.1881818181818</v>
+      </c>
+      <c r="G662" t="n">
+        <v>335.1781818181818</v>
+      </c>
+      <c r="H662" t="n">
+        <v>340.85</v>
+      </c>
+      <c r="I662" t="n">
+        <v>343.8476923076923</v>
+      </c>
+      <c r="J662" t="n">
+        <v>350.4676923076923</v>
+      </c>
+      <c r="K662" t="n">
+        <v>349.48</v>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>177.45</v>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="n">
+        <v>322.91</v>
+      </c>
+      <c r="E663" t="n">
+        <v>336.8644444444445</v>
+      </c>
+      <c r="F663" t="n">
+        <v>336.0681818181818</v>
+      </c>
+      <c r="G663" t="n">
+        <v>340.2281818181818</v>
+      </c>
+      <c r="H663" t="n">
+        <v>351.18</v>
+      </c>
+      <c r="I663" t="n">
+        <v>350.2</v>
+      </c>
+      <c r="J663" t="n">
+        <v>354.1</v>
+      </c>
+      <c r="K663" t="n">
+        <v>353.905</v>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="n">
+        <v>322.4911111111111</v>
+      </c>
+      <c r="F664" t="n">
+        <v>326.9981818181818</v>
+      </c>
+      <c r="G664" t="n">
+        <v>333.1881818181818</v>
+      </c>
+      <c r="H664" t="n">
+        <v>334.2</v>
+      </c>
+      <c r="I664" t="n">
+        <v>342.2823076923077</v>
+      </c>
+      <c r="J664" t="n">
+        <v>344.1623076923077</v>
+      </c>
+      <c r="K664" t="n">
+        <v>349.025</v>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24865,7 +25097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B688"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31753,6 +31985,66 @@
       </c>
       <c r="B688" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -31926,28 +32218,28 @@
         <v>0.0326</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5173807446578038</v>
+        <v>-0.6628934949323602</v>
       </c>
       <c r="J2" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K2" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00213775148508033</v>
+        <v>0.003512926703515218</v>
       </c>
       <c r="M2" t="n">
-        <v>64.24547335258524</v>
+        <v>64.70556696672519</v>
       </c>
       <c r="N2" t="n">
-        <v>5738.219300106393</v>
+        <v>5760.250810481556</v>
       </c>
       <c r="O2" t="n">
-        <v>75.75103497713013</v>
+        <v>75.89631618518487</v>
       </c>
       <c r="P2" t="n">
-        <v>279.8866371287555</v>
+        <v>281.5757738502035</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32007,7 +32299,7 @@
         <v>-0.2770444895253732</v>
       </c>
       <c r="J3" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K3" t="n">
         <v>401</v>
@@ -32082,28 +32374,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3100608342240458</v>
+        <v>-0.3135151513673666</v>
       </c>
       <c r="J4" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K4" t="n">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02529231413414079</v>
+        <v>0.02628126817739562</v>
       </c>
       <c r="M4" t="n">
-        <v>10.27220054129099</v>
+        <v>10.22175409065486</v>
       </c>
       <c r="N4" t="n">
-        <v>170.9196525733674</v>
+        <v>169.6049332272615</v>
       </c>
       <c r="O4" t="n">
-        <v>13.0736243090188</v>
+        <v>13.02324587909103</v>
       </c>
       <c r="P4" t="n">
-        <v>325.3644465834178</v>
+        <v>325.4038941774982</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32160,28 +32452,28 @@
         <v>0.0525</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3410149382555214</v>
+        <v>-0.3230608099417386</v>
       </c>
       <c r="J5" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K5" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03087983499069502</v>
+        <v>0.02816614488022684</v>
       </c>
       <c r="M5" t="n">
-        <v>10.39474704871669</v>
+        <v>10.37420296064239</v>
       </c>
       <c r="N5" t="n">
-        <v>171.624246225348</v>
+        <v>170.9863801382215</v>
       </c>
       <c r="O5" t="n">
-        <v>13.10054373777471</v>
+        <v>13.07617605182117</v>
       </c>
       <c r="P5" t="n">
-        <v>326.3546415154461</v>
+        <v>326.1515854333554</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32238,28 +32530,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3705392082315099</v>
+        <v>-0.3580926908497977</v>
       </c>
       <c r="J6" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K6" t="n">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05136689183855203</v>
+        <v>0.04884713573394894</v>
       </c>
       <c r="M6" t="n">
-        <v>8.569782764061593</v>
+        <v>8.541286093156828</v>
       </c>
       <c r="N6" t="n">
-        <v>120.9150267720619</v>
+        <v>120.1647433511846</v>
       </c>
       <c r="O6" t="n">
-        <v>10.99613690220624</v>
+        <v>10.96196804187937</v>
       </c>
       <c r="P6" t="n">
-        <v>333.0970689208463</v>
+        <v>332.9569688639617</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32316,28 +32608,28 @@
         <v>0.0596</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2577274842974981</v>
+        <v>-0.2460950634774553</v>
       </c>
       <c r="J7" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K7" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03020405174505458</v>
+        <v>0.02802410163570679</v>
       </c>
       <c r="M7" t="n">
-        <v>7.559350801468409</v>
+        <v>7.534532445224464</v>
       </c>
       <c r="N7" t="n">
-        <v>101.7383029350299</v>
+        <v>101.0992650141118</v>
       </c>
       <c r="O7" t="n">
-        <v>10.08654068226713</v>
+        <v>10.05481302730746</v>
       </c>
       <c r="P7" t="n">
-        <v>335.9217574666984</v>
+        <v>335.7904040654868</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32394,28 +32686,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1118416559226546</v>
+        <v>-0.09992260934275239</v>
       </c>
       <c r="J8" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K8" t="n">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006470000634466233</v>
+        <v>0.005227240064532457</v>
       </c>
       <c r="M8" t="n">
-        <v>7.463406739660234</v>
+        <v>7.455489536811674</v>
       </c>
       <c r="N8" t="n">
-        <v>94.14087730729365</v>
+        <v>93.98223288820776</v>
       </c>
       <c r="O8" t="n">
-        <v>9.702622187187011</v>
+        <v>9.694443402702795</v>
       </c>
       <c r="P8" t="n">
-        <v>336.3814335895368</v>
+        <v>336.2492366031308</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32472,28 +32764,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08809365945333797</v>
+        <v>-0.07567100035791827</v>
       </c>
       <c r="J9" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K9" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004534668937263175</v>
+        <v>0.003402987102213095</v>
       </c>
       <c r="M9" t="n">
-        <v>6.858066862355742</v>
+        <v>6.834133397309214</v>
       </c>
       <c r="N9" t="n">
-        <v>82.45672971284164</v>
+        <v>81.94769733409211</v>
       </c>
       <c r="O9" t="n">
-        <v>9.080568798970781</v>
+        <v>9.052496745875809</v>
       </c>
       <c r="P9" t="n">
-        <v>341.2814481322648</v>
+        <v>341.1428495220304</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32550,28 +32842,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0236827164710261</v>
+        <v>0.03637814160515295</v>
       </c>
       <c r="J10" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K10" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003794233380208789</v>
+        <v>0.0009050526364918765</v>
       </c>
       <c r="M10" t="n">
-        <v>6.292432135245826</v>
+        <v>6.297331985422177</v>
       </c>
       <c r="N10" t="n">
-        <v>68.36804134869035</v>
+        <v>68.27421009860407</v>
       </c>
       <c r="O10" t="n">
-        <v>8.268496921973808</v>
+        <v>8.262820952834696</v>
       </c>
       <c r="P10" t="n">
-        <v>340.5359006450801</v>
+        <v>340.3903795706771</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32628,28 +32920,28 @@
         <v>0.0871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07543862055047924</v>
+        <v>0.08898070021455042</v>
       </c>
       <c r="J11" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K11" t="n">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004813961524674948</v>
+        <v>0.006769680228390529</v>
       </c>
       <c r="M11" t="n">
-        <v>5.839085176437814</v>
+        <v>5.839407691248433</v>
       </c>
       <c r="N11" t="n">
-        <v>57.55950109356878</v>
+        <v>57.37414421435106</v>
       </c>
       <c r="O11" t="n">
-        <v>7.586797815519323</v>
+        <v>7.574572213290402</v>
       </c>
       <c r="P11" t="n">
-        <v>343.3424820195104</v>
+        <v>343.1924884971168</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32687,7 +32979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L658"/>
+  <dimension ref="A1:L664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67015,6 +67307,338 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-45.52929288539636,170.75977983229484</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>-45.53133934252529,170.75917877153034</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>-45.5318009235169,170.75861213769036</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-45.53225496262415,170.75798962112492</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-45.53273940623924,170.757402180695</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>-45.5332166809488,170.75681319475297</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>-45.53367443087719,170.75620102798482</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>-45.534201360299015,170.75571397466328</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>-45.53474819268557,170.75526242114145</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:19:47+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-45.531322451501936,170.75915166033644</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-45.53178867084706,170.75859629606813</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-45.53223832881681,170.7579685975168</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-45.53268895138771,170.7573342005266</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>-45.5331677182209,170.75674308913756</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>-45.53368788066257,170.75622323824754</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>-45.53420248871001,170.75571613113672</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>-45.53474072152847,170.75524775231966</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-45.53124259209232,170.75902348113152</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-45.53172764423328,170.75851739417755</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-45.53219518486184,170.75791406759078</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-45.53268206766808,170.75732492578436</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>-45.53312795183002,170.75668615111724</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>-45.533673034846146,170.75619872265415</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>-45.53414102952088,170.75559867850205</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>-45.53474082712788,170.75524795965282</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:19:54+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-45.529299413427644,170.75978414733763</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-45.531292787746324,170.75910404813783</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-45.53183192512989,170.75865222008647</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-45.532254063664816,170.75798848492224</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-45.532715078631114,170.75736940295533</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>-45.53320076172442,170.75679040133355</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>-45.53367826205598,170.7562073545886</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>-45.53421824512603,170.75574624278258</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>-45.53472839279531,170.75522354618064</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-45.52934494644168,170.7598142447881</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>-45.53135277177973,170.7592003263781</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-45.531872841319384,170.75870512126366</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-45.53228689096244,170.75802997566623</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-45.532748071759585,170.75741385617113</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>-45.533266277866986,170.75688420859635</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-45.533715570852586,170.75626896441486</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>-45.534237762900396,170.75578354269894</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>-45.534751756664456,170.7552694186373</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-45.531777128475014,170.7585813728071</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-45.53222587792037,170.75795286073583</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-45.53270207737399,170.75735188576178</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>-45.53315858527229,170.7567300124559</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>-45.5336690681299,170.75619217223303</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>-45.534184363862074,170.75568149328603</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>-45.53472599040775,170.7552188293539</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L664"/>
+  <dimension ref="A1:L665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25086,6 +25086,32 @@
         </is>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr"/>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>335.3584615384615</v>
+      </c>
+      <c r="K665" t="n">
+        <v>338.45</v>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25097,7 +25123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32045,6 +32071,16 @@
       </c>
       <c r="B694" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -32221,7 +32257,7 @@
         <v>-0.6628934949323602</v>
       </c>
       <c r="J2" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K2" t="n">
         <v>374</v>
@@ -32299,7 +32335,7 @@
         <v>-0.2770444895253732</v>
       </c>
       <c r="J3" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K3" t="n">
         <v>401</v>
@@ -32377,7 +32413,7 @@
         <v>-0.3135151513673666</v>
       </c>
       <c r="J4" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K4" t="n">
         <v>476</v>
@@ -32455,7 +32491,7 @@
         <v>-0.3230608099417386</v>
       </c>
       <c r="J5" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K5" t="n">
         <v>550</v>
@@ -32533,7 +32569,7 @@
         <v>-0.3580926908497977</v>
       </c>
       <c r="J6" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K6" t="n">
         <v>554</v>
@@ -32611,7 +32647,7 @@
         <v>-0.2460950634774553</v>
       </c>
       <c r="J7" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K7" t="n">
         <v>547</v>
@@ -32689,7 +32725,7 @@
         <v>-0.09992260934275239</v>
       </c>
       <c r="J8" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K8" t="n">
         <v>535</v>
@@ -32767,7 +32803,7 @@
         <v>-0.07567100035791827</v>
       </c>
       <c r="J9" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K9" t="n">
         <v>524</v>
@@ -32842,28 +32878,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03637814160515295</v>
+        <v>0.03406223262229292</v>
       </c>
       <c r="J10" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K10" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009050526364918765</v>
+        <v>0.0007956334987182512</v>
       </c>
       <c r="M10" t="n">
-        <v>6.297331985422177</v>
+        <v>6.297324845126179</v>
       </c>
       <c r="N10" t="n">
-        <v>68.27421009860407</v>
+        <v>68.20999410911122</v>
       </c>
       <c r="O10" t="n">
-        <v>8.262820952834696</v>
+        <v>8.258934199345047</v>
       </c>
       <c r="P10" t="n">
-        <v>340.3903795706771</v>
+        <v>340.4170192652139</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32920,28 +32956,28 @@
         <v>0.0871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08898070021455042</v>
+        <v>0.0864354232229681</v>
       </c>
       <c r="J11" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="K11" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006769680228390529</v>
+        <v>0.006401968172442651</v>
       </c>
       <c r="M11" t="n">
-        <v>5.839407691248433</v>
+        <v>5.842284310172128</v>
       </c>
       <c r="N11" t="n">
-        <v>57.37414421435106</v>
+        <v>57.35894876401391</v>
       </c>
       <c r="O11" t="n">
-        <v>7.574572213290402</v>
+        <v>7.573569090198749</v>
       </c>
       <c r="P11" t="n">
-        <v>343.1924884971168</v>
+        <v>343.2207940009812</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32979,7 +33015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L664"/>
+  <dimension ref="A1:L665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67639,6 +67675,36 @@
         </is>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr"/>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>-45.53413705734117,170.75559108741658</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>-45.53467015464401,170.7551092021222</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L665"/>
+  <dimension ref="A1:L671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25056,7 +25056,9 @@
           <t>2025-05-29 22:14:03+00:00</t>
         </is>
       </c>
-      <c r="B664" t="inlineStr"/>
+      <c r="B664" t="n">
+        <v>113.9</v>
+      </c>
       <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="n">
@@ -25107,6 +25109,210 @@
         <v>338.45</v>
       </c>
       <c r="L665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>113.82</v>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
+      <c r="H666" t="inlineStr"/>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>321.12</v>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>134.33</v>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="n">
+        <v>314.12</v>
+      </c>
+      <c r="F667" t="n">
+        <v>327.8772727272727</v>
+      </c>
+      <c r="G667" t="n">
+        <v>328.7772727272728</v>
+      </c>
+      <c r="H667" t="n">
+        <v>331.12</v>
+      </c>
+      <c r="I667" t="n">
+        <v>335.8907692307693</v>
+      </c>
+      <c r="J667" t="n">
+        <v>332.3907692307693</v>
+      </c>
+      <c r="K667" t="n">
+        <v>342.59</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>151.81</v>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="n">
+        <v>315.6744444444445</v>
+      </c>
+      <c r="F668" t="n">
+        <v>330.1463636363636</v>
+      </c>
+      <c r="G668" t="n">
+        <v>334.3363636363636</v>
+      </c>
+      <c r="H668" t="n">
+        <v>339.64</v>
+      </c>
+      <c r="I668" t="n">
+        <v>339.9669230769231</v>
+      </c>
+      <c r="J668" t="n">
+        <v>339.1569230769231</v>
+      </c>
+      <c r="K668" t="n">
+        <v>345.72</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:06+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>136.35</v>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="n">
+        <v>307.9233333333333</v>
+      </c>
+      <c r="F670" t="n">
+        <v>308.3981818181818</v>
+      </c>
+      <c r="G670" t="n">
+        <v>316.4081818181818</v>
+      </c>
+      <c r="H670" t="n">
+        <v>320.54</v>
+      </c>
+      <c r="I670" t="n">
+        <v>332.9938461538461</v>
+      </c>
+      <c r="J670" t="n">
+        <v>328.0538461538461</v>
+      </c>
+      <c r="K670" t="n">
+        <v>332.71</v>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:15+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>118.31</v>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="n">
+        <v>287.02</v>
+      </c>
+      <c r="E671" t="n">
+        <v>329.6655555555556</v>
+      </c>
+      <c r="F671" t="n">
+        <v>334.1645454545454</v>
+      </c>
+      <c r="G671" t="n">
+        <v>342.9445454545454</v>
+      </c>
+      <c r="H671" t="n">
+        <v>340.99</v>
+      </c>
+      <c r="I671" t="n">
+        <v>344.6392307692308</v>
+      </c>
+      <c r="J671" t="n">
+        <v>349.1792307692308</v>
+      </c>
+      <c r="K671" t="n">
+        <v>343.775</v>
+      </c>
+      <c r="L671" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25123,7 +25329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B695"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32081,6 +32287,66 @@
       </c>
       <c r="B695" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -32254,28 +32520,28 @@
         <v>0.0326</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6628934949323602</v>
+        <v>-1.076279649446547</v>
       </c>
       <c r="J2" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K2" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003512926703515218</v>
+        <v>0.009019678704448753</v>
       </c>
       <c r="M2" t="n">
-        <v>64.70556696672519</v>
+        <v>66.43153606951269</v>
       </c>
       <c r="N2" t="n">
-        <v>5760.250810481556</v>
+        <v>5953.264468719134</v>
       </c>
       <c r="O2" t="n">
-        <v>75.89631618518487</v>
+        <v>77.1574006088796</v>
       </c>
       <c r="P2" t="n">
-        <v>281.5757738502035</v>
+        <v>286.4028899798814</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32335,7 +32601,7 @@
         <v>-0.2770444895253732</v>
       </c>
       <c r="J3" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K3" t="n">
         <v>401</v>
@@ -32410,28 +32676,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3135151513673666</v>
+        <v>-0.349325565653705</v>
       </c>
       <c r="J4" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K4" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02628126817739562</v>
+        <v>0.03124294319712961</v>
       </c>
       <c r="M4" t="n">
-        <v>10.22175409065486</v>
+        <v>10.37130571585966</v>
       </c>
       <c r="N4" t="n">
-        <v>169.6049332272615</v>
+        <v>176.9070119492238</v>
       </c>
       <c r="O4" t="n">
-        <v>13.02324587909103</v>
+        <v>13.30063953158734</v>
       </c>
       <c r="P4" t="n">
-        <v>325.4038941774982</v>
+        <v>325.8158811090951</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32488,28 +32754,28 @@
         <v>0.0525</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3230608099417386</v>
+        <v>-0.3243866872331833</v>
       </c>
       <c r="J5" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K5" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02816614488022684</v>
+        <v>0.02869556626550951</v>
       </c>
       <c r="M5" t="n">
-        <v>10.37420296064239</v>
+        <v>10.34942560387852</v>
       </c>
       <c r="N5" t="n">
-        <v>170.9863801382215</v>
+        <v>170.2148375800897</v>
       </c>
       <c r="O5" t="n">
-        <v>13.07617605182117</v>
+        <v>13.04664085426167</v>
       </c>
       <c r="P5" t="n">
-        <v>326.1515854333554</v>
+        <v>326.1665957180627</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32566,28 +32832,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3580926908497977</v>
+        <v>-0.3560579077663811</v>
       </c>
       <c r="J6" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K6" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04884713573394894</v>
+        <v>0.04865663074453841</v>
       </c>
       <c r="M6" t="n">
-        <v>8.541286093156828</v>
+        <v>8.544672881649783</v>
       </c>
       <c r="N6" t="n">
-        <v>120.1647433511846</v>
+        <v>120.0248150617018</v>
       </c>
       <c r="O6" t="n">
-        <v>10.96196804187937</v>
+        <v>10.95558373897538</v>
       </c>
       <c r="P6" t="n">
-        <v>332.9569688639617</v>
+        <v>332.9339279081107</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32644,28 +32910,28 @@
         <v>0.0596</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2460950634774553</v>
+        <v>-0.2444096095393309</v>
       </c>
       <c r="J7" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K7" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02802410163570679</v>
+        <v>0.02782630577263379</v>
       </c>
       <c r="M7" t="n">
-        <v>7.534532445224464</v>
+        <v>7.537839363473161</v>
       </c>
       <c r="N7" t="n">
-        <v>101.0992650141118</v>
+        <v>101.0491914056766</v>
       </c>
       <c r="O7" t="n">
-        <v>10.05481302730746</v>
+        <v>10.05232268710454</v>
       </c>
       <c r="P7" t="n">
-        <v>335.7904040654868</v>
+        <v>335.7711958943826</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32722,28 +32988,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09992260934275239</v>
+        <v>-0.1007547171911188</v>
       </c>
       <c r="J8" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K8" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005227240064532457</v>
+        <v>0.0053579105227477</v>
       </c>
       <c r="M8" t="n">
-        <v>7.455489536811674</v>
+        <v>7.454080333896147</v>
       </c>
       <c r="N8" t="n">
-        <v>93.98223288820776</v>
+        <v>93.78209083302038</v>
       </c>
       <c r="O8" t="n">
-        <v>9.694443402702795</v>
+        <v>9.684115387221508</v>
       </c>
       <c r="P8" t="n">
-        <v>336.2492366031308</v>
+        <v>336.2585351888267</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32800,28 +33066,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07567100035791827</v>
+        <v>-0.07684531362276115</v>
       </c>
       <c r="J9" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K9" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003402987102213095</v>
+        <v>0.003551753770697941</v>
       </c>
       <c r="M9" t="n">
-        <v>6.834133397309214</v>
+        <v>6.813025042771439</v>
       </c>
       <c r="N9" t="n">
-        <v>81.94769733409211</v>
+        <v>81.47745557149601</v>
       </c>
       <c r="O9" t="n">
-        <v>9.052496745875809</v>
+        <v>9.026486335861591</v>
       </c>
       <c r="P9" t="n">
-        <v>341.1428495220304</v>
+        <v>341.1560085487831</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32878,28 +33144,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03406223262229292</v>
+        <v>0.02780523970981929</v>
       </c>
       <c r="J10" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K10" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007956334987182512</v>
+        <v>0.0005331078202576167</v>
       </c>
       <c r="M10" t="n">
-        <v>6.297324845126179</v>
+        <v>6.312833170876205</v>
       </c>
       <c r="N10" t="n">
-        <v>68.20999410911122</v>
+        <v>68.30152708519191</v>
       </c>
       <c r="O10" t="n">
-        <v>8.258934199345047</v>
+        <v>8.26447379360549</v>
       </c>
       <c r="P10" t="n">
-        <v>340.4170192652139</v>
+        <v>340.4891442786855</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32956,28 +33222,28 @@
         <v>0.0871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0864354232229681</v>
+        <v>0.07179723482716627</v>
       </c>
       <c r="J11" t="n">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="K11" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006401968172442651</v>
+        <v>0.004393144465349774</v>
       </c>
       <c r="M11" t="n">
-        <v>5.842284310172128</v>
+        <v>5.86979366729865</v>
       </c>
       <c r="N11" t="n">
-        <v>57.35894876401391</v>
+        <v>58.23615839190059</v>
       </c>
       <c r="O11" t="n">
-        <v>7.573569090198749</v>
+        <v>7.63126191346494</v>
       </c>
       <c r="P11" t="n">
-        <v>343.2207940009812</v>
+        <v>343.383946618586</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33015,7 +33281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L665"/>
+  <dimension ref="A1:L671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67631,7 +67897,11 @@
           <t>2025-05-29 22:14:03+00:00</t>
         </is>
       </c>
-      <c r="B664" t="inlineStr"/>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-45.528826375569096,170.75947147107863</t>
+        </is>
+      </c>
       <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr">
@@ -67705,6 +67975,282 @@
         </is>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-45.528825722764864,170.7594710395814</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
+      <c r="H666" t="inlineStr"/>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>-45.534578652411334,170.75492954870222</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:08+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-45.52899308539657,170.75958166500757</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-45.53172138471104,170.758509301195</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>-45.53223179148491,170.757960334933</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-45.532673259594354,170.75731305827887</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>-45.533139050905156,170.7567020429011</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>-45.533631528880356,170.75613018201793</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>-45.534121110749986,170.7555606124974</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>-45.53469201376363,170.7551521199911</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-45.52913572299747,170.7596759479348</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-45.53173173585923,170.7585226842723</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>-45.53224705545076,170.75797962718022</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-45.53270957878487,170.75736199275735</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>-45.533193087515095,170.7567794132754</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>-45.53365546924795,170.75616971578495</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>-45.53415746797438,170.75563009344268</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>-45.53470854009252,170.7551845675809</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:06+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>-45.530994597305565,170.7586254381646</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-45.52900956869281,170.75959256037922</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>-45.53168012068374,170.75845595069185</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-45.53210075730429,170.75779472038462</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-45.532592448581276,170.75720417828973</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>-45.53307194903576,170.75660596581176</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>-45.53361451444997,170.75610208538498</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>-45.534097806723175,170.7555160771232</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>-45.53463984752967,170.7550496976929</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:15+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>-45.52886236139923,170.75949525737946</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-45.53113855978436,170.75885650383464</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-45.531824903524694,170.75864314175473</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>-45.53227408538269,170.75801379056028</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>-45.532765818551646,170.75743776730133</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>-45.533201649649406,170.7567916726793</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>-45.53368291097413,170.7562150315654</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>-45.53421132172801,170.75573301166645</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>-45.53469827053776,170.75516440445975</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L671"/>
+  <dimension ref="A1:L672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25318,6 +25318,44 @@
         </is>
       </c>
     </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="n">
+        <v>301.56</v>
+      </c>
+      <c r="E672" t="n">
+        <v>307.2055555555555</v>
+      </c>
+      <c r="F672" t="n">
+        <v>303.9945454545455</v>
+      </c>
+      <c r="G672" t="n">
+        <v>324.5545454545455</v>
+      </c>
+      <c r="H672" t="n">
+        <v>326.05</v>
+      </c>
+      <c r="I672" t="n">
+        <v>331.37</v>
+      </c>
+      <c r="J672" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="K672" t="n">
+        <v>334.99</v>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25329,7 +25367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B701"/>
+  <dimension ref="A1:B702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32347,6 +32385,16 @@
       </c>
       <c r="B701" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -32523,7 +32571,7 @@
         <v>-1.076279649446547</v>
       </c>
       <c r="J2" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K2" t="n">
         <v>380</v>
@@ -32601,7 +32649,7 @@
         <v>-0.2770444895253732</v>
       </c>
       <c r="J3" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K3" t="n">
         <v>401</v>
@@ -32676,28 +32724,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.349325565653705</v>
+        <v>-0.355747971269844</v>
       </c>
       <c r="J4" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K4" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03124294319712961</v>
+        <v>0.03240618926050454</v>
       </c>
       <c r="M4" t="n">
-        <v>10.37130571585966</v>
+        <v>10.38406513303229</v>
       </c>
       <c r="N4" t="n">
-        <v>176.9070119492238</v>
+        <v>177.0163407819025</v>
       </c>
       <c r="O4" t="n">
-        <v>13.30063953158734</v>
+        <v>13.30474880566719</v>
       </c>
       <c r="P4" t="n">
-        <v>325.8158811090951</v>
+        <v>325.8899450670628</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32754,28 +32802,28 @@
         <v>0.0525</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3243866872331833</v>
+        <v>-0.3281563002241323</v>
       </c>
       <c r="J5" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K5" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02869556626550951</v>
+        <v>0.02941050340333606</v>
       </c>
       <c r="M5" t="n">
-        <v>10.34942560387852</v>
+        <v>10.3509284382908</v>
       </c>
       <c r="N5" t="n">
-        <v>170.2148375800897</v>
+        <v>170.107296908731</v>
       </c>
       <c r="O5" t="n">
-        <v>13.04664085426167</v>
+        <v>13.04251880998187</v>
       </c>
       <c r="P5" t="n">
-        <v>326.1665957180627</v>
+        <v>326.2096401310927</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32832,28 +32880,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3560579077663811</v>
+        <v>-0.3629348300205439</v>
       </c>
       <c r="J6" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K6" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04865663074453841</v>
+        <v>0.05034219467214585</v>
       </c>
       <c r="M6" t="n">
-        <v>8.544672881649783</v>
+        <v>8.566689516874737</v>
       </c>
       <c r="N6" t="n">
-        <v>120.0248150617018</v>
+        <v>120.5006118435062</v>
       </c>
       <c r="O6" t="n">
-        <v>10.95558373897538</v>
+        <v>10.97727706872275</v>
       </c>
       <c r="P6" t="n">
-        <v>332.9339279081107</v>
+        <v>333.0121124989511</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32910,28 +32958,28 @@
         <v>0.0596</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2444096095393309</v>
+        <v>-0.2461171262041026</v>
       </c>
       <c r="J7" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K7" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02782630577263379</v>
+        <v>0.02828436398382261</v>
       </c>
       <c r="M7" t="n">
-        <v>7.537839363473161</v>
+        <v>7.533223585854666</v>
       </c>
       <c r="N7" t="n">
-        <v>101.0491914056766</v>
+        <v>100.9089192580072</v>
       </c>
       <c r="O7" t="n">
-        <v>10.05232268710454</v>
+        <v>10.04534316277982</v>
       </c>
       <c r="P7" t="n">
-        <v>335.7711958943826</v>
+        <v>335.790675088679</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32988,28 +33036,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1007547171911188</v>
+        <v>-0.1034378781690548</v>
       </c>
       <c r="J8" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K8" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0053579105227477</v>
+        <v>0.005658026625684931</v>
       </c>
       <c r="M8" t="n">
-        <v>7.454080333896147</v>
+        <v>7.454798038350801</v>
       </c>
       <c r="N8" t="n">
-        <v>93.78209083302038</v>
+        <v>93.71463506495924</v>
       </c>
       <c r="O8" t="n">
-        <v>9.684115387221508</v>
+        <v>9.680631955867305</v>
       </c>
       <c r="P8" t="n">
-        <v>336.2585351888267</v>
+        <v>336.2886044117276</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33066,28 +33114,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07684531362276115</v>
+        <v>-0.07968710107751821</v>
       </c>
       <c r="J9" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K9" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003551753770697941</v>
+        <v>0.003826188704829203</v>
       </c>
       <c r="M9" t="n">
-        <v>6.813025042771439</v>
+        <v>6.8169129751331</v>
       </c>
       <c r="N9" t="n">
-        <v>81.47745557149601</v>
+        <v>81.43757197743763</v>
       </c>
       <c r="O9" t="n">
-        <v>9.026486335861591</v>
+        <v>9.024276811880142</v>
       </c>
       <c r="P9" t="n">
-        <v>341.1560085487831</v>
+        <v>341.1880370296205</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33144,28 +33192,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02780523970981929</v>
+        <v>0.02665327624800402</v>
       </c>
       <c r="J10" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K10" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005331078202576167</v>
+        <v>0.0004915003463669132</v>
       </c>
       <c r="M10" t="n">
-        <v>6.312833170876205</v>
+        <v>6.306793898675072</v>
       </c>
       <c r="N10" t="n">
-        <v>68.30152708519191</v>
+        <v>68.1866319434257</v>
       </c>
       <c r="O10" t="n">
-        <v>8.26447379360549</v>
+        <v>8.257519721043705</v>
       </c>
       <c r="P10" t="n">
-        <v>340.4891442786855</v>
+        <v>340.5024772537952</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33222,28 +33270,28 @@
         <v>0.0871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07179723482716627</v>
+        <v>0.06815465643945125</v>
       </c>
       <c r="J11" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K11" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004393144465349774</v>
+        <v>0.003960586155746459</v>
       </c>
       <c r="M11" t="n">
-        <v>5.86979366729865</v>
+        <v>5.879311208723381</v>
       </c>
       <c r="N11" t="n">
-        <v>58.23615839190059</v>
+        <v>58.32262227018065</v>
       </c>
       <c r="O11" t="n">
-        <v>7.63126191346494</v>
+        <v>7.636924922387325</v>
       </c>
       <c r="P11" t="n">
-        <v>343.383946618586</v>
+        <v>343.4247177500943</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33281,7 +33329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L671"/>
+  <dimension ref="A1:L672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68251,6 +68299,60 @@
         </is>
       </c>
     </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>-45.5312253429192,170.75899579523747</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>-45.53167534095086,170.75844977095417</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>-45.532071134386975,170.7577572800246</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-45.53264567125065,170.75727588732292</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>-45.53310689529308,170.75665600215015</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>-45.53360497714952,170.75608633605836</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>-45.534152326050176,170.7556202668915</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>-45.53465188589924,170.7550733335909</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L672"/>
+  <dimension ref="A1:L676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25356,6 +25356,174 @@
         </is>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="C673" t="n">
+        <v>322.4471428571428</v>
+      </c>
+      <c r="D673" t="n">
+        <v>321.02</v>
+      </c>
+      <c r="E673" t="n">
+        <v>326.4811111111111</v>
+      </c>
+      <c r="F673" t="n">
+        <v>327.2881818181818</v>
+      </c>
+      <c r="G673" t="n">
+        <v>327.8081818181818</v>
+      </c>
+      <c r="H673" t="n">
+        <v>332.11</v>
+      </c>
+      <c r="I673" t="n">
+        <v>342.8823076923077</v>
+      </c>
+      <c r="J673" t="n">
+        <v>346.0423076923077</v>
+      </c>
+      <c r="K673" t="n">
+        <v>347.645</v>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>205.56</v>
+      </c>
+      <c r="C674" t="n">
+        <v>319.4485714285714</v>
+      </c>
+      <c r="D674" t="n">
+        <v>308.82</v>
+      </c>
+      <c r="E674" t="n">
+        <v>323.3944444444444</v>
+      </c>
+      <c r="F674" t="n">
+        <v>324.5054545454545</v>
+      </c>
+      <c r="G674" t="n">
+        <v>332.1754545454546</v>
+      </c>
+      <c r="H674" t="n">
+        <v>333.21</v>
+      </c>
+      <c r="I674" t="n">
+        <v>336.8007692307692</v>
+      </c>
+      <c r="J674" t="n">
+        <v>337.7007692307693</v>
+      </c>
+      <c r="K674" t="n">
+        <v>345.725</v>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>274.52</v>
+      </c>
+      <c r="C675" t="n">
+        <v>321.5871428571429</v>
+      </c>
+      <c r="D675" t="n">
+        <v>316.42</v>
+      </c>
+      <c r="E675" t="n">
+        <v>320.0411111111111</v>
+      </c>
+      <c r="F675" t="n">
+        <v>322.9981818181818</v>
+      </c>
+      <c r="G675" t="n">
+        <v>327.8581818181818</v>
+      </c>
+      <c r="H675" t="n">
+        <v>327.0700000000001</v>
+      </c>
+      <c r="I675" t="n">
+        <v>342.2423076923077</v>
+      </c>
+      <c r="J675" t="n">
+        <v>341.3123076923077</v>
+      </c>
+      <c r="K675" t="n">
+        <v>347.775</v>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>296.91</v>
+      </c>
+      <c r="C676" t="n">
+        <v>322.2742857142857</v>
+      </c>
+      <c r="D676" t="n">
+        <v>326.48</v>
+      </c>
+      <c r="E676" t="n">
+        <v>338.5933333333333</v>
+      </c>
+      <c r="F676" t="n">
+        <v>340.4109090909091</v>
+      </c>
+      <c r="G676" t="n">
+        <v>339.4409090909091</v>
+      </c>
+      <c r="H676" t="n">
+        <v>342.93</v>
+      </c>
+      <c r="I676" t="n">
+        <v>351.7130769230769</v>
+      </c>
+      <c r="J676" t="n">
+        <v>349.0730769230769</v>
+      </c>
+      <c r="K676" t="n">
+        <v>346.43</v>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25367,7 +25535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B702"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32395,6 +32563,46 @@
       </c>
       <c r="B702" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -32568,28 +32776,28 @@
         <v>0.0326</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.076279649446547</v>
+        <v>-1.145953160867894</v>
       </c>
       <c r="J2" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K2" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009019678704448753</v>
+        <v>0.01029206541714089</v>
       </c>
       <c r="M2" t="n">
-        <v>66.43153606951269</v>
+        <v>66.48810746838495</v>
       </c>
       <c r="N2" t="n">
-        <v>5953.264468719134</v>
+        <v>5954.99617974657</v>
       </c>
       <c r="O2" t="n">
-        <v>77.1574006088796</v>
+        <v>77.16862173025102</v>
       </c>
       <c r="P2" t="n">
-        <v>286.4028899798814</v>
+        <v>287.2220331099916</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32646,28 +32854,28 @@
         <v>0.0423</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2770444895253732</v>
+        <v>-0.287478593567313</v>
       </c>
       <c r="J3" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K3" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01825122667751677</v>
+        <v>0.0199905842032011</v>
       </c>
       <c r="M3" t="n">
-        <v>11.0907095534861</v>
+        <v>11.02866411603418</v>
       </c>
       <c r="N3" t="n">
-        <v>192.3489400522604</v>
+        <v>190.7138568454052</v>
       </c>
       <c r="O3" t="n">
-        <v>13.86899203447246</v>
+        <v>13.80991878489534</v>
       </c>
       <c r="P3" t="n">
-        <v>333.7713994399468</v>
+        <v>333.8912840397066</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32724,28 +32932,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.355747971269844</v>
+        <v>-0.3531272986547078</v>
       </c>
       <c r="J4" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K4" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03240618926050454</v>
+        <v>0.03238236000998185</v>
       </c>
       <c r="M4" t="n">
-        <v>10.38406513303229</v>
+        <v>10.34307164149825</v>
       </c>
       <c r="N4" t="n">
-        <v>177.0163407819025</v>
+        <v>175.9176597275438</v>
       </c>
       <c r="O4" t="n">
-        <v>13.30474880566719</v>
+        <v>13.2633954825883</v>
       </c>
       <c r="P4" t="n">
-        <v>325.8899450670628</v>
+        <v>325.8595327594718</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32802,28 +33010,28 @@
         <v>0.0525</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3281563002241323</v>
+        <v>-0.3147405014340525</v>
       </c>
       <c r="J5" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K5" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02941050340333606</v>
+        <v>0.02732797175233337</v>
       </c>
       <c r="M5" t="n">
-        <v>10.3509284382908</v>
+        <v>10.33969398123607</v>
       </c>
       <c r="N5" t="n">
-        <v>170.107296908731</v>
+        <v>169.8694232693491</v>
       </c>
       <c r="O5" t="n">
-        <v>13.04251880998187</v>
+        <v>13.03339645945557</v>
       </c>
       <c r="P5" t="n">
-        <v>326.2096401310927</v>
+        <v>326.0556859842653</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32880,28 +33088,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3629348300205439</v>
+        <v>-0.3556679619984191</v>
       </c>
       <c r="J6" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K6" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05034219467214585</v>
+        <v>0.04885526931420958</v>
       </c>
       <c r="M6" t="n">
-        <v>8.566689516874737</v>
+        <v>8.542555487320756</v>
       </c>
       <c r="N6" t="n">
-        <v>120.5006118435062</v>
+        <v>120.172582760386</v>
       </c>
       <c r="O6" t="n">
-        <v>10.97727706872275</v>
+        <v>10.96232560912081</v>
       </c>
       <c r="P6" t="n">
-        <v>333.0121124989511</v>
+        <v>332.9290330922805</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32958,28 +33166,28 @@
         <v>0.0596</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2461171262041026</v>
+        <v>-0.242714468267376</v>
       </c>
       <c r="J7" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K7" t="n">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02828436398382261</v>
+        <v>0.02783066268401413</v>
       </c>
       <c r="M7" t="n">
-        <v>7.533223585854666</v>
+        <v>7.507328563084079</v>
       </c>
       <c r="N7" t="n">
-        <v>100.9089192580072</v>
+        <v>100.3871732371163</v>
       </c>
       <c r="O7" t="n">
-        <v>10.04534316277982</v>
+        <v>10.01933996015288</v>
       </c>
       <c r="P7" t="n">
-        <v>335.790675088679</v>
+        <v>335.7516108607397</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33036,28 +33244,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1034378781690548</v>
+        <v>-0.1030964248156158</v>
       </c>
       <c r="J8" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K8" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005658026625684931</v>
+        <v>0.005682321664492673</v>
       </c>
       <c r="M8" t="n">
-        <v>7.454798038350801</v>
+        <v>7.432545120259981</v>
       </c>
       <c r="N8" t="n">
-        <v>93.71463506495924</v>
+        <v>93.26844127870878</v>
       </c>
       <c r="O8" t="n">
-        <v>9.680631955867305</v>
+        <v>9.657558763927289</v>
       </c>
       <c r="P8" t="n">
-        <v>336.2886044117276</v>
+        <v>336.2847039129142</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33114,28 +33322,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07968710107751821</v>
+        <v>-0.07347302580170399</v>
       </c>
       <c r="J9" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K9" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003826188704829203</v>
+        <v>0.003285967588861682</v>
       </c>
       <c r="M9" t="n">
-        <v>6.8169129751331</v>
+        <v>6.801964124831308</v>
       </c>
       <c r="N9" t="n">
-        <v>81.43757197743763</v>
+        <v>81.17656616181816</v>
       </c>
       <c r="O9" t="n">
-        <v>9.024276811880142</v>
+        <v>9.0098038914184</v>
       </c>
       <c r="P9" t="n">
-        <v>341.1880370296205</v>
+        <v>341.1176016015243</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33192,28 +33400,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02665327624800402</v>
+        <v>0.03019157419959278</v>
       </c>
       <c r="J10" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K10" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004915003463669132</v>
+        <v>0.0006379152517718145</v>
       </c>
       <c r="M10" t="n">
-        <v>6.306793898675072</v>
+        <v>6.288470888370091</v>
       </c>
       <c r="N10" t="n">
-        <v>68.1866319434257</v>
+        <v>67.8491632004515</v>
       </c>
       <c r="O10" t="n">
-        <v>8.257519721043705</v>
+        <v>8.237060349448187</v>
       </c>
       <c r="P10" t="n">
-        <v>340.5024772537952</v>
+        <v>340.4613083215857</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33270,28 +33478,28 @@
         <v>0.0871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06815465643945125</v>
+        <v>0.07053339905294845</v>
       </c>
       <c r="J11" t="n">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K11" t="n">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003960586155746459</v>
+        <v>0.004296610302407133</v>
       </c>
       <c r="M11" t="n">
-        <v>5.879311208723381</v>
+        <v>5.847214179169066</v>
       </c>
       <c r="N11" t="n">
-        <v>58.32262227018065</v>
+        <v>57.91756287197888</v>
       </c>
       <c r="O11" t="n">
-        <v>7.636924922387325</v>
+        <v>7.610358918735626</v>
       </c>
       <c r="P11" t="n">
-        <v>343.4247177500943</v>
+        <v>343.3979682445041</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33329,7 +33537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L672"/>
+  <dimension ref="A1:L676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68353,6 +68561,254 @@
         </is>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>-45.52884922371574,170.75948657348843</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>-45.53082531745671,170.75974298877182</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>-45.531341491206256,170.7591822203053</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>-45.531803698124804,170.75861572501518</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>-45.53222782872403,170.7579553263705</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>-45.53266692823382,170.7573045277613</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>-45.533145329809585,170.75671103311302</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>-45.53367259209197,170.7561979915137</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>-45.53419446583103,170.75570079884932</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>-45.53471870404436,170.7552045233765</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>-45.52957432500814,170.75996586546268</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>-45.53080434226865,170.7597188441951</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>-45.5312686747398,170.7590653453011</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>-45.531783143826836,170.75858915012122</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>-45.53220910956837,170.75793166710565</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>-45.53269546092693,170.75734297112183</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>-45.53315230636928,170.75672102223973</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>-45.53363687356066,170.75613900791544</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>-45.5341496434865,170.7556151403394</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>-45.5347085664924,170.7551846194141</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>-45.53013704018873,170.7603378293634</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>-45.53081930170533,170.75973606402718</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>-45.53131403583075,170.75913815264522</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>-45.531760813772884,170.75856027936197</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>-45.532198970278586,170.7579188519991</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>-45.532667254898776,170.75730496789114</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>-45.53311336447089,170.75666526478224</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>-45.53366883319908,170.75619178428101</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>-45.534169049701,170.7556522268869</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>-45.53471939044098,170.75520587104089</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>-45.53031974286043,170.76045860052537</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>-45.53082410831071,170.75974159692103</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>-45.531374079522095,170.7592345267577</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>-45.531884354080255,170.7587200063103</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>-45.53231610406526,170.7580668984496</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>-45.53274292827745,170.75740692610742</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>-45.5332139537513,170.75680928990332</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>-45.53372445755204,170.75628363947274</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>-45.53421075132261,170.75573192158058</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>-45.53471228887515,170.7551919278995</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L676"/>
+  <dimension ref="A1:L677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25524,6 +25524,48 @@
         </is>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>310.29</v>
+      </c>
+      <c r="C677" t="n">
+        <v>323.9314285714286</v>
+      </c>
+      <c r="D677" t="n">
+        <v>322.41</v>
+      </c>
+      <c r="E677" t="n">
+        <v>325.2044444444444</v>
+      </c>
+      <c r="F677" t="n">
+        <v>329.3336363636364</v>
+      </c>
+      <c r="G677" t="n">
+        <v>331.0936363636364</v>
+      </c>
+      <c r="H677" t="n">
+        <v>336.89</v>
+      </c>
+      <c r="I677" t="n">
+        <v>338.4076923076923</v>
+      </c>
+      <c r="J677" t="n">
+        <v>345.7176923076923</v>
+      </c>
+      <c r="K677" t="n">
+        <v>343.93</v>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25535,7 +25577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:B707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32603,6 +32645,16 @@
       </c>
       <c r="B706" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -33537,7 +33589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L676"/>
+  <dimension ref="A1:L677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68809,6 +68861,68 @@
         </is>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>-45.53042892376628,170.76053077231282</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>-45.53083570012305,170.75975494028637</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>-45.5313497875013,170.75919553641106</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>-45.5317951967258,170.758604733453</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>-45.532241588309496,170.75797271721547</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>-45.53268839308779,170.7573334483041</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>-45.53317564612652,170.7567544404271</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>-45.533646311460274,170.75615459312658</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>-45.53419272154692,170.7556974654005</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>-45.53469908893427,170.75516601128916</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -32828,28 +32828,28 @@
         <v>0.0326</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.145953160867894</v>
+        <v>-1.119283309903524</v>
       </c>
       <c r="J2" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K2" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01029206541714089</v>
+        <v>0.009856383070116825</v>
       </c>
       <c r="M2" t="n">
-        <v>66.48810746838495</v>
+        <v>66.41500547810874</v>
       </c>
       <c r="N2" t="n">
-        <v>5954.99617974657</v>
+        <v>5946.782331071313</v>
       </c>
       <c r="O2" t="n">
-        <v>77.16862173025102</v>
+        <v>77.1153832323442</v>
       </c>
       <c r="P2" t="n">
-        <v>287.2220331099916</v>
+        <v>286.9062976062282</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32906,28 +32906,28 @@
         <v>0.0423</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.287478593567313</v>
+        <v>-0.2887271911341784</v>
       </c>
       <c r="J3" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K3" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0199905842032011</v>
+        <v>0.02025929159896078</v>
       </c>
       <c r="M3" t="n">
-        <v>11.02866411603418</v>
+        <v>11.00716189448375</v>
       </c>
       <c r="N3" t="n">
-        <v>190.7138568454052</v>
+        <v>190.258693372056</v>
       </c>
       <c r="O3" t="n">
-        <v>13.80991878489534</v>
+        <v>13.79342935502466</v>
       </c>
       <c r="P3" t="n">
-        <v>333.8912840397066</v>
+        <v>333.905689549684</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32984,28 +32984,28 @@
         <v>0.0463</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3531272986547078</v>
+        <v>-0.3507056522341147</v>
       </c>
       <c r="J4" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K4" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03238236000998185</v>
+        <v>0.03206656284620879</v>
       </c>
       <c r="M4" t="n">
-        <v>10.34307164149825</v>
+        <v>10.33258619729581</v>
       </c>
       <c r="N4" t="n">
-        <v>175.9176597275438</v>
+        <v>175.6229286848263</v>
       </c>
       <c r="O4" t="n">
-        <v>13.2633954825883</v>
+        <v>13.25228013154062</v>
       </c>
       <c r="P4" t="n">
-        <v>325.8595327594718</v>
+        <v>325.8313631298282</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33062,28 +33062,28 @@
         <v>0.0525</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3147405014340525</v>
+        <v>-0.312116442248126</v>
       </c>
       <c r="J5" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K5" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02732797175233337</v>
+        <v>0.02696127718874686</v>
       </c>
       <c r="M5" t="n">
-        <v>10.33969398123607</v>
+        <v>10.33353779286446</v>
       </c>
       <c r="N5" t="n">
-        <v>169.8694232693491</v>
+        <v>169.6628326101789</v>
       </c>
       <c r="O5" t="n">
-        <v>13.03339645945557</v>
+        <v>13.02546861384184</v>
       </c>
       <c r="P5" t="n">
-        <v>326.0556859842653</v>
+        <v>326.0254546094646</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33140,28 +33140,28 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3556679619984191</v>
+        <v>-0.3536860221224363</v>
       </c>
       <c r="J6" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K6" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04885526931420958</v>
+        <v>0.04847020253084677</v>
       </c>
       <c r="M6" t="n">
-        <v>8.542555487320756</v>
+        <v>8.536880816414644</v>
       </c>
       <c r="N6" t="n">
-        <v>120.172582760386</v>
+        <v>120.0169444899622</v>
       </c>
       <c r="O6" t="n">
-        <v>10.96232560912081</v>
+        <v>10.95522452941802</v>
       </c>
       <c r="P6" t="n">
-        <v>332.9290330922805</v>
+        <v>332.9062937472248</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33218,28 +33218,28 @@
         <v>0.0596</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.242714468267376</v>
+        <v>-0.2421253422598729</v>
       </c>
       <c r="J7" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K7" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02783066268401413</v>
+        <v>0.02778765370899317</v>
       </c>
       <c r="M7" t="n">
-        <v>7.507328563084079</v>
+        <v>7.496799286339626</v>
       </c>
       <c r="N7" t="n">
-        <v>100.3871732371163</v>
+        <v>100.2120432689932</v>
       </c>
       <c r="O7" t="n">
-        <v>10.01933996015288</v>
+        <v>10.01059654910701</v>
       </c>
       <c r="P7" t="n">
-        <v>335.7516108607397</v>
+        <v>335.7448277155224</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33296,28 +33296,28 @@
         <v>0.0559</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1030964248156158</v>
+        <v>-0.1019365854060538</v>
       </c>
       <c r="J8" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K8" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005682321664492673</v>
+        <v>0.005573472772662069</v>
       </c>
       <c r="M8" t="n">
-        <v>7.432545120259981</v>
+        <v>7.42480410130929</v>
       </c>
       <c r="N8" t="n">
-        <v>93.26844127870878</v>
+        <v>93.1172017048562</v>
       </c>
       <c r="O8" t="n">
-        <v>9.657558763927289</v>
+        <v>9.64972547303063</v>
       </c>
       <c r="P8" t="n">
-        <v>336.2847039129142</v>
+        <v>336.2715830084931</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33374,28 +33374,28 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07347302580170399</v>
+        <v>-0.07375873049148765</v>
       </c>
       <c r="J9" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K9" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003285967588861682</v>
+        <v>0.003322994015878433</v>
       </c>
       <c r="M9" t="n">
-        <v>6.801964124831308</v>
+        <v>6.790910061256981</v>
       </c>
       <c r="N9" t="n">
-        <v>81.17656616181816</v>
+        <v>81.02570802116952</v>
       </c>
       <c r="O9" t="n">
-        <v>9.0098038914184</v>
+        <v>9.001428110092839</v>
       </c>
       <c r="P9" t="n">
-        <v>341.1176016015243</v>
+        <v>341.1208516392037</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33452,28 +33452,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03019157419959278</v>
+        <v>0.03188888321741838</v>
       </c>
       <c r="J10" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K10" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006379152517718145</v>
+        <v>0.0007137622600965621</v>
       </c>
       <c r="M10" t="n">
-        <v>6.288470888370091</v>
+        <v>6.284377582297735</v>
       </c>
       <c r="N10" t="n">
-        <v>67.8491632004515</v>
+        <v>67.75702029720995</v>
       </c>
       <c r="O10" t="n">
-        <v>8.237060349448187</v>
+        <v>8.231465258215572</v>
       </c>
       <c r="P10" t="n">
-        <v>340.4613083215857</v>
+        <v>340.4414858528733</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33530,28 +33530,28 @@
         <v>0.0871</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07053339905294845</v>
+        <v>0.07007008826046961</v>
       </c>
       <c r="J11" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K11" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004296610302407133</v>
+        <v>0.004254779717393076</v>
       </c>
       <c r="M11" t="n">
-        <v>5.847214179169066</v>
+        <v>5.839050281612954</v>
       </c>
       <c r="N11" t="n">
-        <v>57.91756287197888</v>
+        <v>57.81386583008015</v>
       </c>
       <c r="O11" t="n">
-        <v>7.610358918735626</v>
+        <v>7.603542978775102</v>
       </c>
       <c r="P11" t="n">
-        <v>343.3979682445041</v>
+        <v>343.4032031667209</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -32819,13 +32819,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0174</v>
+        <v>0.0337</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0326</v>
+        <v>0.1035</v>
       </c>
       <c r="I2" t="n">
         <v>-1.119283309903524</v>
@@ -32897,13 +32897,13 @@
         <v>0.1113627889139804</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0335</v>
+        <v>0.0378</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0423</v>
+        <v>0.0824</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2887420390931374</v>
@@ -32975,13 +32975,13 @@
         <v>0.2217713368806797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0381</v>
+        <v>0.0388</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0463</v>
+        <v>0.0641</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3507056522341147</v>
@@ -33053,13 +33053,13 @@
         <v>0.3321071385105607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0435</v>
+        <v>0.0384</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0525</v>
+        <v>0.0689</v>
       </c>
       <c r="I5" t="n">
         <v>-0.3121327339248105</v>
@@ -33131,13 +33131,13 @@
         <v>0.4434037184131025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0509</v>
+        <v>0.052</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.0948</v>
       </c>
       <c r="I6" t="n">
         <v>-0.353671769457403</v>
@@ -33209,13 +33209,13 @@
         <v>0.5547665096735815</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0519</v>
+        <v>0.0631</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0596</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2421079198242021</v>
@@ -33287,13 +33287,13 @@
         <v>0.6660791495031428</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0481</v>
+        <v>0.0728</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0559</v>
+        <v>0.115</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1019365854060538</v>
@@ -33365,13 +33365,13 @@
         <v>0.7774419407628808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0592</v>
+        <v>0.0675</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.0872</v>
       </c>
       <c r="I9" t="n">
         <v>-0.0737820099795423</v>
@@ -33443,13 +33443,13 @@
         <v>0.8886372087397379</v>
       </c>
       <c r="F10" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0617</v>
+        <v>0.0708</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0707</v>
+        <v>0.102</v>
       </c>
       <c r="I10" t="n">
         <v>0.03186243776164407</v>
@@ -33521,13 +33521,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.0901</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0871</v>
+        <v>0.1399</v>
       </c>
       <c r="I11" t="n">
         <v>0.07005718065478948</v>

--- a/data/nzd0493/nzd0493.xlsx
+++ b/data/nzd0493/nzd0493.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L681"/>
+  <dimension ref="A1:L683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29031,6 +29031,90 @@
       <c r="L681" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>209.15</v>
+      </c>
+      <c r="C682" t="n">
+        <v>328.03</v>
+      </c>
+      <c r="D682" t="n">
+        <v>314.83</v>
+      </c>
+      <c r="E682" t="n">
+        <v>325.77</v>
+      </c>
+      <c r="F682" t="n">
+        <v>328.44</v>
+      </c>
+      <c r="G682" t="n">
+        <v>333.24</v>
+      </c>
+      <c r="H682" t="n">
+        <v>336.35</v>
+      </c>
+      <c r="I682" t="n">
+        <v>342.09</v>
+      </c>
+      <c r="J682" t="n">
+        <v>343.3</v>
+      </c>
+      <c r="K682" t="n">
+        <v>343.97</v>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>228.15</v>
+      </c>
+      <c r="C683" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="D683" t="n">
+        <v>315.89</v>
+      </c>
+      <c r="E683" t="n">
+        <v>324.93</v>
+      </c>
+      <c r="F683" t="n">
+        <v>328.06</v>
+      </c>
+      <c r="G683" t="n">
+        <v>333.25</v>
+      </c>
+      <c r="H683" t="n">
+        <v>335.66</v>
+      </c>
+      <c r="I683" t="n">
+        <v>341.97</v>
+      </c>
+      <c r="J683" t="n">
+        <v>342.73</v>
+      </c>
+      <c r="K683" t="n">
+        <v>343.02</v>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -29045,7 +29129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36153,6 +36237,26 @@
       </c>
       <c r="B710" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -36320,34 +36424,34 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0338</v>
+        <v>0.0343</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1033</v>
+        <v>0.1115</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.061387834187306</v>
+        <v>-1.081639331893142</v>
       </c>
       <c r="J2" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K2" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01678136931620344</v>
+        <v>0.01750392188691374</v>
       </c>
       <c r="M2" t="n">
-        <v>47.76803700925108</v>
+        <v>47.71850452204816</v>
       </c>
       <c r="N2" t="n">
-        <v>2991.277571074612</v>
+        <v>2985.626526979345</v>
       </c>
       <c r="O2" t="n">
-        <v>54.69257327164825</v>
+        <v>54.64088695271468</v>
       </c>
       <c r="P2" t="n">
-        <v>278.4096584781649</v>
+        <v>278.6503192230516</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36398,34 +36502,34 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0378</v>
+        <v>0.038</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0822</v>
+        <v>0.0825</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3283303970596938</v>
+        <v>-0.3269102440282817</v>
       </c>
       <c r="J3" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K3" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L3" t="n">
-        <v>0.117847950636455</v>
+        <v>0.1175246657702362</v>
       </c>
       <c r="M3" t="n">
-        <v>4.86650386811213</v>
+        <v>4.858238195399148</v>
       </c>
       <c r="N3" t="n">
-        <v>38.28261180167643</v>
+        <v>38.18964159817131</v>
       </c>
       <c r="O3" t="n">
-        <v>6.187294384597878</v>
+        <v>6.179776824301287</v>
       </c>
       <c r="P3" t="n">
-        <v>335.4175761156275</v>
+        <v>335.4011500274557</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36476,34 +36580,34 @@
         <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0389</v>
+        <v>0.0388</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0639</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3793971032310097</v>
+        <v>-0.3804086217853857</v>
       </c>
       <c r="J4" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K4" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1548192254722226</v>
+        <v>0.1562835765302705</v>
       </c>
       <c r="M4" t="n">
-        <v>4.841497831595879</v>
+        <v>4.832307270254815</v>
       </c>
       <c r="N4" t="n">
-        <v>37.27955360280604</v>
+        <v>37.17909694618331</v>
       </c>
       <c r="O4" t="n">
-        <v>6.105698453314415</v>
+        <v>6.097466436659025</v>
       </c>
       <c r="P4" t="n">
-        <v>326.9829619180881</v>
+        <v>326.9946535279223</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36554,34 +36658,34 @@
         <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0384</v>
+        <v>0.0385</v>
       </c>
       <c r="H5" t="n">
         <v>0.0687</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3112001620353964</v>
+        <v>-0.306776496938357</v>
       </c>
       <c r="J5" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K5" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1092028697798141</v>
+        <v>0.1066346920574217</v>
       </c>
       <c r="M5" t="n">
-        <v>4.855231042861888</v>
+        <v>4.861090533273596</v>
       </c>
       <c r="N5" t="n">
-        <v>37.47851284043626</v>
+        <v>37.52232188092428</v>
       </c>
       <c r="O5" t="n">
-        <v>6.121969686337581</v>
+        <v>6.125546659762236</v>
       </c>
       <c r="P5" t="n">
-        <v>326.2634888091865</v>
+        <v>326.2123462055689</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36632,34 +36736,34 @@
         <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.052</v>
+        <v>0.0521</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09429999999999999</v>
+        <v>0.0944</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3443576176696688</v>
+        <v>-0.3418646649420982</v>
       </c>
       <c r="J6" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K6" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1767604138831003</v>
+        <v>0.1752615996879445</v>
       </c>
       <c r="M6" t="n">
-        <v>4.114800431175532</v>
+        <v>4.114651135333268</v>
       </c>
       <c r="N6" t="n">
-        <v>26.20104349469368</v>
+        <v>26.17296028199881</v>
       </c>
       <c r="O6" t="n">
-        <v>5.1186954875919</v>
+        <v>5.115951551959695</v>
       </c>
       <c r="P6" t="n">
-        <v>333.2022224051597</v>
+        <v>333.1734007186362</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36710,34 +36814,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0633</v>
+        <v>0.0634</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0828</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2249204578987297</v>
+        <v>-0.2229516395037373</v>
       </c>
       <c r="J7" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K7" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1273590531857167</v>
+        <v>0.1258803901674067</v>
       </c>
       <c r="M7" t="n">
-        <v>3.224135753969094</v>
+        <v>3.224263923817501</v>
       </c>
       <c r="N7" t="n">
-        <v>16.44453686057718</v>
+        <v>16.42665348501211</v>
       </c>
       <c r="O7" t="n">
-        <v>4.055186415021778</v>
+        <v>4.052980814784608</v>
       </c>
       <c r="P7" t="n">
-        <v>335.9226631329428</v>
+        <v>335.8999001567473</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36788,34 +36892,34 @@
         <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0731</v>
+        <v>0.0732</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1155</v>
+        <v>0.1156</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09061332985225244</v>
+        <v>-0.08966695469151216</v>
       </c>
       <c r="J8" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K8" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03334591559643529</v>
+        <v>0.03284701614868812</v>
       </c>
       <c r="M8" t="n">
-        <v>2.712227142959865</v>
+        <v>2.709150003265153</v>
       </c>
       <c r="N8" t="n">
-        <v>11.29199265396607</v>
+        <v>11.26624172348113</v>
       </c>
       <c r="O8" t="n">
-        <v>3.360356030834541</v>
+        <v>3.356522266197728</v>
       </c>
       <c r="P8" t="n">
-        <v>336.8322245078969</v>
+        <v>336.8212848857817</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36866,34 +36970,34 @@
         <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0675</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0872</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06788122516044963</v>
+        <v>-0.06630167919881243</v>
       </c>
       <c r="J9" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K9" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0164067156145612</v>
+        <v>0.01573444923403511</v>
       </c>
       <c r="M9" t="n">
-        <v>2.901156268632079</v>
+        <v>2.899127158670372</v>
       </c>
       <c r="N9" t="n">
-        <v>13.10542808908356</v>
+        <v>13.08653790549258</v>
       </c>
       <c r="O9" t="n">
-        <v>3.620141998469613</v>
+        <v>3.61753201858568</v>
       </c>
       <c r="P9" t="n">
-        <v>341.2208861020691</v>
+        <v>341.2026242225378</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36944,34 +37048,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0711</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1024</v>
+        <v>0.1026</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03424437042511947</v>
+        <v>0.03515440486582817</v>
       </c>
       <c r="J10" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K10" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005690479874467469</v>
+        <v>0.006027178143696132</v>
       </c>
       <c r="M10" t="n">
-        <v>2.489718282391286</v>
+        <v>2.486872449920402</v>
       </c>
       <c r="N10" t="n">
-        <v>9.720957431059565</v>
+        <v>9.69917855052276</v>
       </c>
       <c r="O10" t="n">
-        <v>3.11784499792077</v>
+        <v>3.114350421921522</v>
       </c>
       <c r="P10" t="n">
-        <v>340.6237085451729</v>
+        <v>340.6131887355246</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37022,34 +37126,34 @@
         <v>0.11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0898</v>
+        <v>0.09</v>
       </c>
       <c r="H11" t="n">
         <v>0.1391</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06049516389654747</v>
+        <v>0.05923384314814006</v>
       </c>
       <c r="J11" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K11" t="n">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01893834294231245</v>
+        <v>0.01825332657139533</v>
       </c>
       <c r="M11" t="n">
-        <v>2.399081463418632</v>
+        <v>2.397928624808919</v>
       </c>
       <c r="N11" t="n">
-        <v>8.994014929582526</v>
+        <v>8.980741768060254</v>
       </c>
       <c r="O11" t="n">
-        <v>2.999002322370312</v>
+        <v>2.996788575802479</v>
       </c>
       <c r="P11" t="n">
-        <v>343.978834648925</v>
+        <v>343.9934205653965</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37087,7 +37191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L681"/>
+  <dimension ref="A1:L683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79269,6 +79373,130 @@
         </is>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:52+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>-45.52960361951813,170.75998522941364</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>-45.5308643698664,170.75978794213324</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>-45.531304545816724,170.7591229205727</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>-45.5317989627939,170.75860960264768</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>-45.532235576899794,170.7579651193475</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>-45.53270241591748,170.7573523418969</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>-45.53317222127142,170.75674953666964</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>-45.53366793865481,170.7561903070791</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>-45.534179730347425,170.75567263832258</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>-45.53469930013338,170.75516642595485</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>-45.52975866004957,170.760087713047</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>-45.53087968903889,170.75980557610694</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>-45.53131087249295,170.75913307528714</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>-45.531793369183866,170.7586023706024</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>-45.53223302067457,170.757961888515</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>-45.532702481250446,170.75735242992297</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>-45.53316784506741,170.75674327075814</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>-45.533667233862346,170.7561891432231</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>-45.534176667515354,170.75566678504242</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>-45.5346942841544,170.75515657764606</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
